--- a/PROPOSAL/Data energy.xlsx
+++ b/PROPOSAL/Data energy.xlsx
@@ -447,1610 +447,1610 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.499999</v>
+        <v>4.499983000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.499999</v>
+        <v>4.499988805130824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4999980000000001</v>
+        <v>3.98894010324856</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4999980000000001</v>
+        <v>4.499977610261647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4999970000000001</v>
+        <v>3.98892310324856</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4999970000000001</v>
+        <v>4.499966018643312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4999960000000001</v>
+        <v>3.988906103248561</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4999960000000001</v>
+        <v>4.499954823774136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4999950000000001</v>
+        <v>3.466582427819496</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4999950000000001</v>
+        <v>4.49994362890496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4999940000000002</v>
+        <v>3.466565427819496</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4999940000000002</v>
+        <v>4.499932434035784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4999930000000002</v>
+        <v>3.466548427819497</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4999930000000002</v>
+        <v>4.499920626092634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4999920000000002</v>
+        <v>3.466531427819497</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4999920000000002</v>
+        <v>3.968709984304939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4999910000000002</v>
+        <v>3.466514427819497</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4999910000000002</v>
+        <v>3.463466927594604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4999900000000003</v>
+        <v>3.466497427819498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4999900000000003</v>
+        <v>3.463456490555038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4999890000000003</v>
+        <v>3.466480427819498</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4999890000000003</v>
+        <v>2.9526029186006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4999880000000003</v>
+        <v>3.466463427819499</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4999880000000003</v>
+        <v>2.952592961301161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4999870000000003</v>
+        <v>3.466446427819499</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4999870000000003</v>
+        <v>2.952583004001722</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4999860000000004</v>
+        <v>3.466429427819499</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4999860000000004</v>
+        <v>1.960017197354053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999850000000004</v>
+        <v>2.9503973246371</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4999850000000004</v>
+        <v>1.461218742088739</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999840000000004</v>
+        <v>2.439216938499974</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4999840000000004</v>
+        <v>0.973589426485899</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999830000000005</v>
+        <v>1.944150536921577</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4999830000000005</v>
+        <v>0.9735864264858991</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4999820000000005</v>
+        <v>1.944141536921577</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4999820000000005</v>
+        <v>0.9735834264858991</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4999810000000005</v>
+        <v>1.457299086918915</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4999810000000005</v>
+        <v>0.9735804264858992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4999800000000005</v>
+        <v>0.9735725457461661</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4999800000000005</v>
+        <v>0.9735774264858993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4999790000000006</v>
+        <v>0.9735695457461662</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4999790000000006</v>
+        <v>0.9735744264858994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4999780000000006</v>
+        <v>0.9735665457461663</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4999780000000006</v>
+        <v>0.9735714264858994</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4999770000000006</v>
+        <v>0.9735635457461664</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4999770000000006</v>
+        <v>0.9735684264858995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4999760000000006</v>
+        <v>0.9735605457461665</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4999760000000006</v>
+        <v>0.9735654264858996</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4999750000000007</v>
+        <v>0.9735575457461665</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4999750000000007</v>
+        <v>0.9735624264858997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4999740000000007</v>
+        <v>0.9735545457461666</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4999740000000007</v>
+        <v>0.9735594264858998</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4999730000000007</v>
+        <v>0.9735515457461668</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4999730000000007</v>
+        <v>0.9735564264858998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4999720000000007</v>
+        <v>0.9735485457461668</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4999720000000007</v>
+        <v>0.9735534264858999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4999710000000008</v>
+        <v>0.9735455457461668</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4999710000000008</v>
+        <v>0.9735504264859001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4999700000000008</v>
+        <v>0.9735425457461669</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4999700000000008</v>
+        <v>0.9735474264859001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4999690000000008</v>
+        <v>0.9735395457461671</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4999690000000008</v>
+        <v>0.9735444264859001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4999680000000009</v>
+        <v>0.9735365457461671</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4999680000000009</v>
+        <v>0.9735414264859003</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4999670000000009</v>
+        <v>0.9735335457461671</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999670000000009</v>
+        <v>0.9735384264859004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4999660000000009</v>
+        <v>0.9735305457461673</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999660000000009</v>
+        <v>0.9735354264859004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4999650000000009</v>
+        <v>0.9735275457461674</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4999650000000009</v>
+        <v>0.9735324264859004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.499964000000001</v>
+        <v>0.9735245457461674</v>
       </c>
       <c r="B37" t="n">
-        <v>0.499964000000001</v>
+        <v>0.9735294264859006</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.499963000000001</v>
+        <v>0.9735215457461674</v>
       </c>
       <c r="B38" t="n">
-        <v>0.499963000000001</v>
+        <v>0.9735264264859007</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.499962000000001</v>
+        <v>0.9735185457461676</v>
       </c>
       <c r="B39" t="n">
-        <v>0.499962000000001</v>
+        <v>0.9735234264859007</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.499961000000001</v>
+        <v>0.9735155457461677</v>
       </c>
       <c r="B40" t="n">
-        <v>0.499961000000001</v>
+        <v>0.9735204264859008</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4999600000000011</v>
+        <v>0.9735125457461677</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4999600000000011</v>
+        <v>0.9735174264859009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4999590000000011</v>
+        <v>0.9735095457461678</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4999590000000011</v>
+        <v>0.973514426485901</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4999580000000011</v>
+        <v>0.9735065457461679</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4999580000000011</v>
+        <v>0.9735114264859011</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4999570000000012</v>
+        <v>0.973503545746168</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4999570000000012</v>
+        <v>0.9735084264859011</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4999560000000012</v>
+        <v>0.9735005457461681</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4999560000000012</v>
+        <v>0.9735054264859012</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4999550000000012</v>
+        <v>0.9734975457461681</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4999550000000012</v>
+        <v>0.9735024264859014</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.4999540000000012</v>
+        <v>0.9734945457461682</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4999540000000012</v>
+        <v>0.9734994264859014</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4999530000000013</v>
+        <v>0.9734915457461684</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4999530000000013</v>
+        <v>0.9734964264859014</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4999520000000013</v>
+        <v>0.9734885457461684</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4999520000000013</v>
+        <v>0.9734934264859015</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4999510000000013</v>
+        <v>0.9734855457461684</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4999510000000013</v>
+        <v>0.9734904264859017</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4999500000000013</v>
+        <v>0.9734825457461685</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4999500000000013</v>
+        <v>0.9734874264859017</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4999490000000014</v>
+        <v>0.9734795457461687</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4999490000000014</v>
+        <v>0.9734844264859017</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4999480000000014</v>
+        <v>0.9734765457461687</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4999480000000014</v>
+        <v>0.9734814264859019</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4999470000000014</v>
+        <v>0.9734735457461687</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4999470000000014</v>
+        <v>0.973478426485902</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4999460000000014</v>
+        <v>0.9734705457461689</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4999460000000014</v>
+        <v>0.973475426485902</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4999450000000015</v>
+        <v>0.973467545746169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4999450000000015</v>
+        <v>0.973472426485902</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4999440000000015</v>
+        <v>0.973464545746169</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4999440000000015</v>
+        <v>0.9734694264859022</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4999430000000015</v>
+        <v>0.9734615457461691</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4999430000000015</v>
+        <v>0.9734664264859023</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4999420000000016</v>
+        <v>0.9734585457461692</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4999420000000016</v>
+        <v>0.9734634264859023</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4999410000000016</v>
+        <v>0.9734555457461693</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4999410000000016</v>
+        <v>0.9734604264859024</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4999400000000016</v>
+        <v>0.9734525457461694</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4999400000000016</v>
+        <v>0.9734574264859025</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4999390000000016</v>
+        <v>0.9734495457461694</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4999390000000016</v>
+        <v>0.9734544264859026</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4999380000000017</v>
+        <v>0.9734465457461695</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4999380000000017</v>
+        <v>0.9734514264859027</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4999370000000017</v>
+        <v>0.9734435457461696</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4999370000000017</v>
+        <v>0.9734484264859027</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4999360000000017</v>
+        <v>0.9734405457461697</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4999360000000017</v>
+        <v>0.9734454264859028</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4999350000000017</v>
+        <v>0.9734375457461697</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4999350000000017</v>
+        <v>0.973442426485903</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4999340000000018</v>
+        <v>0.9734345457461698</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4999340000000018</v>
+        <v>0.973439426485903</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.4999330000000018</v>
+        <v>0.97343154574617</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4999330000000018</v>
+        <v>0.973436426485903</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4999320000000018</v>
+        <v>0.97342854574617</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4999320000000018</v>
+        <v>0.9734334264859031</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4999310000000018</v>
+        <v>0.97342554574617</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4999310000000018</v>
+        <v>0.9734304264859033</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4999300000000019</v>
+        <v>0.9734225457461702</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4999300000000019</v>
+        <v>0.9734274264859033</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4999290000000019</v>
+        <v>0.9734195457461703</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4999290000000019</v>
+        <v>0.9734244264859033</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4999280000000019</v>
+        <v>0.9734165457461703</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4999280000000019</v>
+        <v>0.9734214264859035</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.499927000000002</v>
+        <v>0.9734135457461703</v>
       </c>
       <c r="B74" t="n">
-        <v>0.499927000000002</v>
+        <v>0.9734184264859036</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.499926000000002</v>
+        <v>0.9734105457461705</v>
       </c>
       <c r="B75" t="n">
-        <v>0.499926000000002</v>
+        <v>0.9734154264859036</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.499925000000002</v>
+        <v>0.9734075457461706</v>
       </c>
       <c r="B76" t="n">
-        <v>0.499925000000002</v>
+        <v>0.9734124264859036</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.499924000000002</v>
+        <v>0.9734045457461706</v>
       </c>
       <c r="B77" t="n">
-        <v>0.499924000000002</v>
+        <v>0.9734094264859038</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4999230000000021</v>
+        <v>0.9734015457461707</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4999230000000021</v>
+        <v>0.9734064264859039</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4999220000000021</v>
+        <v>0.9733985457461708</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4999220000000021</v>
+        <v>0.9734034264859039</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4999210000000021</v>
+        <v>0.9733955457461709</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4999210000000021</v>
+        <v>0.973400426485904</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4999200000000021</v>
+        <v>0.973392545746171</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4999200000000021</v>
+        <v>0.9733974264859041</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4999190000000022</v>
+        <v>0.973389545746171</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4999190000000022</v>
+        <v>0.9733944264859042</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4999180000000022</v>
+        <v>0.9733865457461711</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4999180000000022</v>
+        <v>0.9733914264859043</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4999170000000022</v>
+        <v>0.9733835457461713</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4999170000000022</v>
+        <v>0.9733884264859043</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4999160000000022</v>
+        <v>0.9733805457461713</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4999160000000022</v>
+        <v>0.9733854264859044</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4999150000000023</v>
+        <v>0.9733775457461713</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4999150000000023</v>
+        <v>0.9733824264859046</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4999140000000023</v>
+        <v>0.9733745457461714</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4999140000000023</v>
+        <v>0.9733794264859046</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.4999130000000023</v>
+        <v>0.9733715457461716</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4999130000000023</v>
+        <v>0.9733764264859046</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4999120000000024</v>
+        <v>0.9733685457461716</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4999120000000024</v>
+        <v>0.9733734264859047</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4999110000000024</v>
+        <v>0.9733655457461716</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4999110000000024</v>
+        <v>0.9733704264859049</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4999100000000024</v>
+        <v>0.9733625457461718</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4999100000000024</v>
+        <v>0.9733674264859049</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.4999090000000024</v>
+        <v>0.9733595457461719</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4999090000000024</v>
+        <v>0.9733644264859049</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4999080000000025</v>
+        <v>0.9733565457461719</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4999080000000025</v>
+        <v>0.9733614264859051</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.4999070000000025</v>
+        <v>0.9733535457461719</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4999070000000025</v>
+        <v>0.9733584264859052</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4999060000000025</v>
+        <v>0.9733505457461721</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4999060000000025</v>
+        <v>0.9733554264859052</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.4999050000000025</v>
+        <v>0.9733475457461722</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4999050000000025</v>
+        <v>0.9733524264859053</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4999040000000026</v>
+        <v>0.9733445457461722</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4999040000000026</v>
+        <v>0.9733494264859054</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4999030000000026</v>
+        <v>0.9733415457461723</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4999030000000026</v>
+        <v>0.9733464264859055</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.4999020000000026</v>
+        <v>0.9733385457461724</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4999020000000026</v>
+        <v>0.9733434264859055</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.4999010000000026</v>
+        <v>0.9733355457461725</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4999010000000026</v>
+        <v>0.9733404264859056</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4999000000000027</v>
+        <v>0.9733325457461726</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4999000000000027</v>
+        <v>0.9733374264859057</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4998990000000027</v>
+        <v>0.9733295457461726</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4998990000000027</v>
+        <v>0.9733344264859058</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4998980000000027</v>
+        <v>0.9733265457461727</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4998980000000027</v>
+        <v>0.9733314264859059</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4998970000000028</v>
+        <v>0.9733235457461729</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4998970000000028</v>
+        <v>0.9733284264859059</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4998960000000028</v>
+        <v>0.9733205457461729</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4998960000000028</v>
+        <v>0.973325426485906</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4998950000000028</v>
+        <v>0.9733175457461729</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4998950000000028</v>
+        <v>0.9733224264859062</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4998940000000028</v>
+        <v>0.973314545746173</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4998940000000028</v>
+        <v>0.9733194264859062</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4998930000000029</v>
+        <v>0.9733115457461732</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4998930000000029</v>
+        <v>0.9733164264859062</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4998920000000029</v>
+        <v>0.9733085457461732</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4998920000000029</v>
+        <v>0.9733134264859064</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.4998910000000029</v>
+        <v>0.9733055457461732</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4998910000000029</v>
+        <v>0.9733104264859065</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4998900000000029</v>
+        <v>0.9733025457461734</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4998900000000029</v>
+        <v>0.9733074264859065</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.499889000000003</v>
+        <v>0.9732995457461735</v>
       </c>
       <c r="B112" t="n">
-        <v>0.499889000000003</v>
+        <v>0.9733044264859065</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.499888000000003</v>
+        <v>0.9732965457461735</v>
       </c>
       <c r="B113" t="n">
-        <v>0.499888000000003</v>
+        <v>0.9733014264859067</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.499887000000003</v>
+        <v>0.9732935457461735</v>
       </c>
       <c r="B114" t="n">
-        <v>0.499887000000003</v>
+        <v>0.9732984264859068</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4998860000000031</v>
+        <v>0.9732905457461737</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4998860000000031</v>
+        <v>0.9732954264859068</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4998850000000031</v>
+        <v>0.9732875457461738</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4998850000000031</v>
+        <v>0.9732924264859069</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4998840000000031</v>
+        <v>0.9732845457461738</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4998840000000031</v>
+        <v>0.973289426485907</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4998830000000031</v>
+        <v>0.9732815457461739</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4998830000000031</v>
+        <v>0.9732864264859071</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.4998820000000032</v>
+        <v>0.973278545746174</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4998820000000032</v>
+        <v>0.9732834264859072</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4998810000000032</v>
+        <v>0.9732755457461741</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4998810000000032</v>
+        <v>0.9732804264859072</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4998800000000032</v>
+        <v>0.9732725457461742</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4998800000000032</v>
+        <v>0.9732774264859073</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4998790000000032</v>
+        <v>0.9732695457461742</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4998790000000032</v>
+        <v>0.9732744264859075</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4998780000000033</v>
+        <v>0.9732665457461743</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4998780000000033</v>
+        <v>0.9732714264859075</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4998770000000033</v>
+        <v>0.9732635457461745</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4998770000000033</v>
+        <v>0.9732684264859075</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4998760000000033</v>
+        <v>0.9732605457461745</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4998760000000033</v>
+        <v>0.9732654264859076</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4998750000000033</v>
+        <v>0.9732575457461745</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4998750000000033</v>
+        <v>0.9732624264859078</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4998740000000034</v>
+        <v>0.9732545457461746</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4998740000000034</v>
+        <v>0.9732594264859078</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4998730000000034</v>
+        <v>0.9732515457461748</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4998730000000034</v>
+        <v>0.9732564264859078</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4998720000000034</v>
+        <v>0.9732485457461748</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4998720000000034</v>
+        <v>0.973253426485908</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4998710000000035</v>
+        <v>0.9732455457461748</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4998710000000035</v>
+        <v>0.9732504264859081</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4998700000000035</v>
+        <v>0.973242545746175</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4998700000000035</v>
+        <v>0.9732474264859081</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4998690000000035</v>
+        <v>0.9732395457461751</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4998690000000035</v>
+        <v>0.9732444264859081</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4998680000000035</v>
+        <v>0.9732365457461751</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4998680000000035</v>
+        <v>0.9732414264859083</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4998670000000036</v>
+        <v>0.9732335457461752</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4998670000000036</v>
+        <v>0.9732384264859084</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4998660000000036</v>
+        <v>0.9732305457461753</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4998660000000036</v>
+        <v>0.9732354264859084</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4998650000000036</v>
+        <v>0.9732275457461754</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4998650000000036</v>
+        <v>0.9732324264859085</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.4998640000000036</v>
+        <v>0.9732245457461755</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4998640000000036</v>
+        <v>0.9732294264859086</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.4998630000000037</v>
+        <v>0.9732215457461755</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4998630000000037</v>
+        <v>0.9732264264859087</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4998620000000037</v>
+        <v>0.9732185457461756</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4998620000000037</v>
+        <v>0.9732234264859088</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.4998610000000037</v>
+        <v>0.9732155457461757</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4998610000000037</v>
+        <v>0.9732204264859088</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.4998600000000037</v>
+        <v>0.9732125457461758</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4998600000000037</v>
+        <v>0.9732174264859089</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.4998590000000038</v>
+        <v>0.9732095457461758</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4998590000000038</v>
+        <v>0.9732144264859091</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.4998580000000038</v>
+        <v>0.9732065457461759</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4998580000000038</v>
+        <v>0.9732114264859091</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.4998570000000038</v>
+        <v>0.9732035457461761</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4998570000000038</v>
+        <v>0.9732084264859091</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.4998560000000039</v>
+        <v>0.9732005457461761</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4998560000000039</v>
+        <v>0.9732054264859092</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.4998550000000039</v>
+        <v>0.9731975457461761</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4998550000000039</v>
+        <v>0.9732024264859094</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.4998540000000039</v>
+        <v>0.9731945457461763</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4998540000000039</v>
+        <v>0.9731994264859094</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.4998530000000039</v>
+        <v>0.9731915457461764</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4998530000000039</v>
+        <v>0.9731964264859094</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.499852000000004</v>
+        <v>0.9731885457461764</v>
       </c>
       <c r="B149" t="n">
-        <v>0.499852000000004</v>
+        <v>0.9731934264859096</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.499851000000004</v>
+        <v>0.9731855457461764</v>
       </c>
       <c r="B150" t="n">
-        <v>0.499851000000004</v>
+        <v>0.9731904264859097</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.499850000000004</v>
+        <v>0.9731825457461766</v>
       </c>
       <c r="B151" t="n">
-        <v>0.499850000000004</v>
+        <v>0.9731874264859097</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.499849000000004</v>
+        <v>0.9731795457461767</v>
       </c>
       <c r="B152" t="n">
-        <v>0.499849000000004</v>
+        <v>0.9731844264859097</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.4998480000000041</v>
+        <v>0.9731765457461767</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4998480000000041</v>
+        <v>0.9731814264859099</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.4998470000000041</v>
+        <v>0.9731735457461768</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4998470000000041</v>
+        <v>0.97317842648591</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.4998460000000041</v>
+        <v>0.9731705457461769</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4998460000000041</v>
+        <v>0.97317542648591</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.4998450000000041</v>
+        <v>0.973167545746177</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4998450000000041</v>
+        <v>0.9731724264859101</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.4998440000000042</v>
+        <v>0.9731645457461771</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4998440000000042</v>
+        <v>0.9731694264859102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.4998430000000042</v>
+        <v>0.9731615457461771</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4998430000000042</v>
+        <v>0.9731664264859103</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.4998420000000042</v>
+        <v>0.9731585457461772</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4998420000000042</v>
+        <v>0.9731634264859104</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.4998410000000043</v>
+        <v>0.9731555457461774</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4998410000000043</v>
+        <v>0.9731604264859104</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.4998400000000043</v>
+        <v>0.9731525457461774</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4998400000000043</v>
+        <v>0.9731574264859105</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.4998390000000043</v>
+        <v>0.9731495457461774</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4998390000000043</v>
+        <v>0.9731544264859107</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.4998380000000043</v>
+        <v>0.9731465457461775</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4998380000000043</v>
+        <v>0.9731514264859107</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.4998370000000044</v>
+        <v>0.9731435457461777</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4998370000000044</v>
+        <v>0.9731484264859107</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.4998360000000044</v>
+        <v>0.9731405457461777</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4998360000000044</v>
+        <v>0.9731454264859108</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.4998350000000044</v>
+        <v>0.9731375457461777</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4998350000000044</v>
+        <v>0.973142426485911</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.4998340000000044</v>
+        <v>0.9731345457461779</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4998340000000044</v>
+        <v>0.973139426485911</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.4998330000000045</v>
+        <v>0.973131545746178</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4998330000000045</v>
+        <v>0.973136426485911</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.4998320000000045</v>
+        <v>0.973128545746178</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4998320000000045</v>
+        <v>0.9731334264859112</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.4998310000000045</v>
+        <v>0.973125545746178</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4998310000000045</v>
+        <v>0.9731304264859113</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.4998300000000045</v>
+        <v>0.9731225457461782</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4998300000000045</v>
+        <v>0.9731274264859113</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4998290000000046</v>
+        <v>0.9731195457461783</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4998290000000046</v>
+        <v>0.9731244264859114</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.4998280000000046</v>
+        <v>0.9731165457461783</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4998280000000046</v>
+        <v>0.9731214264859115</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4998270000000046</v>
+        <v>0.9731135457461784</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4998270000000046</v>
+        <v>0.9731184264859116</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.4998260000000047</v>
+        <v>0.9731105457461785</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4998260000000047</v>
+        <v>0.9731154264859116</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.4998250000000047</v>
+        <v>0.9731075457461786</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4998250000000047</v>
+        <v>0.9731124264859117</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.4998240000000047</v>
+        <v>0.9731045457461787</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4998240000000047</v>
+        <v>0.9731094264859118</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4998230000000047</v>
+        <v>0.9731015457461787</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4998230000000047</v>
+        <v>0.9731064264859119</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4998220000000048</v>
+        <v>0.9730985457461788</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4998220000000048</v>
+        <v>0.973103426485912</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4998210000000048</v>
+        <v>0.973095545746179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4998210000000048</v>
+        <v>0.973100426485912</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4998200000000048</v>
+        <v>0.973092545746179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4998200000000048</v>
+        <v>0.9730974264859121</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.4998190000000048</v>
+        <v>0.973089545746179</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4998190000000048</v>
+        <v>0.9730944264859123</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4998180000000049</v>
+        <v>0.9730865457461791</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4998180000000049</v>
+        <v>0.9730914264859123</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4998170000000049</v>
+        <v>0.9730835457461793</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4998170000000049</v>
+        <v>0.9730884264859123</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.4998160000000049</v>
+        <v>0.9730805457461793</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4998160000000049</v>
+        <v>0.9730854264859125</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.4998150000000049</v>
+        <v>0.9730775457461793</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4998150000000049</v>
+        <v>0.9730824264859126</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.499814000000005</v>
+        <v>0.9730745457461795</v>
       </c>
       <c r="B187" t="n">
-        <v>0.499814000000005</v>
+        <v>0.9730794264859126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.499813000000005</v>
+        <v>0.9730715457461796</v>
       </c>
       <c r="B188" t="n">
-        <v>0.499813000000005</v>
+        <v>0.9730764264859126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.499812000000005</v>
+        <v>0.9730685457461796</v>
       </c>
       <c r="B189" t="n">
-        <v>0.499812000000005</v>
+        <v>0.9730734264859128</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.4998110000000051</v>
+        <v>0.9730655457461796</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4998110000000051</v>
+        <v>0.9730704264859129</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.4998100000000051</v>
+        <v>0.9730625457461798</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4998100000000051</v>
+        <v>0.9730674264859129</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.4998090000000051</v>
+        <v>0.9730595457461799</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4998090000000051</v>
+        <v>0.973064426485913</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.4998080000000051</v>
+        <v>0.9730565457461799</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4998080000000051</v>
+        <v>0.9730614264859131</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.4998070000000052</v>
+        <v>0.97305354574618</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4998070000000052</v>
+        <v>0.9730584264859132</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.4998060000000052</v>
+        <v>0.9730505457461801</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4998060000000052</v>
+        <v>0.9730554264859133</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.4998050000000052</v>
+        <v>0.9730475457461802</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4998050000000052</v>
+        <v>0.9730524264859133</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.4998040000000052</v>
+        <v>0.9730445457461803</v>
       </c>
       <c r="B197" t="n">
-        <v>0.4998040000000052</v>
+        <v>0.9730494264859134</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.4998030000000053</v>
+        <v>0.9730415457461803</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4998030000000053</v>
+        <v>0.9730464264859136</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.4998020000000053</v>
+        <v>0.9730385457461804</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4998020000000053</v>
+        <v>0.9730434264859136</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.4998010000000053</v>
+        <v>0.9730355457461806</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4998010000000053</v>
+        <v>0.9730404264859136</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.4998000000000054</v>
+        <v>0.9730325457461806</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4998000000000054</v>
+        <v>0.9730374264859137</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.4997990000000054</v>
+        <v>0.9730295457461806</v>
       </c>
       <c r="B202" t="n">
-        <v>0.4997990000000054</v>
+        <v>0.9730344264859139</v>
       </c>
     </row>
   </sheetData>
